--- a/build/web/Export/cal.xlsx
+++ b/build/web/Export/cal.xlsx
@@ -12,7 +12,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>pakut</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,43 +68,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>2.0</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="n">
-        <v>2.0</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" t="n">
-        <v>2.0</v>
+      <c r="C1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2.0</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" t="n">
-        <v>2.0</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.0</v>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/build/web/Export/cal.xlsx
+++ b/build/web/Export/cal.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
-    <t>1</t>
+    <t>tb_user</t>
+  </si>
+  <si>
+    <t>0000000001</t>
   </si>
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>pakut</t>
   </si>
 </sst>
 </file>
@@ -60,8 +57,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -75,28 +75,25 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/build/web/Export/cal.xlsx
+++ b/build/web/Export/cal.xlsx
@@ -12,12 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>tb_user</t>
-  </si>
-  <si>
-    <t>0000000001</t>
   </si>
   <si>
     <t>admin</t>
@@ -45,7 +42,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -53,13 +50,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -75,24 +90,26 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C2" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
